--- a/soluzione/zoli.xlsx
+++ b/soluzione/zoli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.buscherini_t\PycharmProjects\CorrezioneExcel\verifiche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.buscherini_t\PycharmProjects\GUICorrezioneXLS\soluzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A7085-24D3-4FE2-82E5-A387A153E1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD49905A-5EF4-4884-8CD9-261010C8980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\ dd\ mmmm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -286,12 +286,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -404,11 +398,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,27 +421,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,7 +768,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D13" sqref="D13:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -795,15 +783,15 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="10"/>
       <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -1202,35 +1190,35 @@
       <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <f>D13/$L13</f>
         <v>9.7227036395147307E-2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <f t="shared" ref="E17:K17" si="4">E13/$L13</f>
         <v>0.13726169844020794</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <f t="shared" si="4"/>
         <v>0.15459272097053728</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <f t="shared" si="4"/>
         <v>0.18578856152512996</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <f t="shared" si="4"/>
         <v>9.982668977469672E-2</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <f t="shared" si="4"/>
         <v>0.10658578856152513</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <f t="shared" si="4"/>
         <v>0.13986135181975737</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <f t="shared" si="4"/>
         <v>7.8856152512998268E-2</v>
       </c>
@@ -1246,7 +1234,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E12" sqref="E12:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1255,15 +1243,15 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="10"/>
       <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -1310,7 +1298,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <f>C12*C$6+D12*C$7</f>
         <v>3.4000000000000004</v>
       </c>
@@ -1325,7 +1313,7 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <f t="shared" ref="E13:E18" si="0">C13*C$6+D13*C$7</f>
         <v>3.5</v>
       </c>
@@ -1340,7 +1328,7 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
@@ -1355,7 +1343,7 @@
       <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
@@ -1370,7 +1358,7 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>10.4</v>
       </c>
@@ -1385,7 +1373,7 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
@@ -1400,7 +1388,7 @@
       <c r="D18">
         <v>7</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1415,7 +1403,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D8" sqref="D8:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1427,15 +1415,15 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="10"/>
       <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -1465,157 +1453,157 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <f ca="1">RANDBETWEEN(D$3*10,D$4*10)/10</f>
-        <v>33.9</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <f t="shared" ref="D9:D24" ca="1" si="0">RANDBETWEEN(D$3*10,D$4*10)/10</f>
-        <v>48.3</v>
+        <v>-21.7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-28.3</v>
+      <c r="D10" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-17.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.1</v>
+      <c r="D11" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>35.200000000000003</v>
+      <c r="D12" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.6</v>
+      <c r="D13" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-24.2</v>
+      <c r="D14" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.3</v>
+      <c r="D15" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>40.200000000000003</v>
+      <c r="D16" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-20</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45.4</v>
+      <c r="D17" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.4</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+      <c r="D18" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.7</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+      <c r="D19" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.6</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.6</v>
+      <c r="D20" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+      <c r="D21" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.5</v>
+      <c r="D22" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12.9</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-17.100000000000001</v>
+      <c r="D23" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-16.2</v>
+      <c r="D24" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1625,7 +1613,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E6" sqref="E6:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1634,18 +1622,18 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="10"/>
       <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="15" t="e" vm="1">
+      <c r="E3" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="F3">
@@ -1654,146 +1642,146 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>86</v>
-      </c>
-      <c r="E6" s="14">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
         <f ca="1">SQRT(D6/(2*$F$3))</f>
-        <v>3.6996385101659595</v>
+        <v>2.8209479177387813</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" ref="D7:D15" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>12</v>
-      </c>
-      <c r="E7" s="14">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" ref="E7:E15" ca="1" si="1">SQRT(D7/(2*$F$3))</f>
-        <v>1.381976597885342</v>
+        <v>1.8281831978578631</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8281831978578631</v>
+        <v>1.9544100476116797</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9291257907979795</v>
+        <v>3.454941494713355</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0342144725641096</v>
+        <v>3.7424103185095552</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7846987830302403</v>
+        <v>3.6125759969217834</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2163754912903433</v>
+        <v>3.454941494713355</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8768136958757959</v>
+        <v>3.1158388162107515</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3138634663094946</v>
+        <v>2.7350104799285653</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2410224072142872</v>
+        <v>3.6780660900548137</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
